--- a/eldenRingWords.xlsx
+++ b/eldenRingWords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Main\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\main\elden-ring-dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AEC535-5AD3-44A9-85EF-22215D71C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA132625-877A-486F-AB61-35258E4EE1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{31BC81F1-51A6-43CE-99C2-7B2BC88D45DB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31BC81F1-51A6-43CE-99C2-7B2BC88D45DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,9 +409,6 @@
     <t>traitor</t>
   </si>
   <si>
-    <t>apair</t>
-  </si>
-  <si>
     <t>trio</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>lift</t>
   </si>
   <si>
-    <t>spiritspring</t>
-  </si>
-  <si>
     <t>sending gate</t>
   </si>
   <si>
@@ -826,9 +820,6 @@
     <t>house</t>
   </si>
   <si>
-    <t>cemetary</t>
-  </si>
-  <si>
     <t>underground tomb</t>
   </si>
   <si>
@@ -1129,12 +1120,6 @@
     <t>resignation</t>
   </si>
   <si>
-    <t>fiutility</t>
-  </si>
-  <si>
-    <t>on the brnk</t>
-  </si>
-  <si>
     <t>recklessness</t>
   </si>
   <si>
@@ -1256,6 +1241,21 @@
   </si>
   <si>
     <t>are you ready?</t>
+  </si>
+  <si>
+    <t>a pair</t>
+  </si>
+  <si>
+    <t>spirit spring</t>
+  </si>
+  <si>
+    <t>futility</t>
+  </si>
+  <si>
+    <t>on the brink</t>
+  </si>
+  <si>
+    <t>cemetery</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7D1EF9-C3B0-4257-A3C5-BE472BD3EFB6}">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,34 +1689,34 @@
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1733,34 +1733,34 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1777,34 +1777,34 @@
         <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1821,34 +1821,34 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1865,34 +1865,34 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1909,34 +1909,34 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1953,34 +1953,34 @@
         <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1997,34 +1997,34 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2041,34 +2041,34 @@
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2085,31 +2085,31 @@
         <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2123,31 +2123,31 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N13" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2161,31 +2161,31 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I14" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2199,28 +2199,28 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N15" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2234,28 +2234,28 @@
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2269,28 +2269,28 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N17" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2304,28 +2304,28 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N18" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2339,28 +2339,28 @@
         <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N19" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2374,22 +2374,22 @@
         <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2403,22 +2403,22 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N21" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2432,22 +2432,22 @@
         <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N22" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2461,22 +2461,22 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N23" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2490,22 +2490,22 @@
         <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N24" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2519,19 +2519,19 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N25" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2545,19 +2545,19 @@
         <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N26" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2571,19 +2571,19 @@
         <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N27" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2594,19 +2594,19 @@
         <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2617,19 +2617,19 @@
         <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N29" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2640,19 +2640,19 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N30" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2663,19 +2663,19 @@
         <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2689,16 +2689,16 @@
         <v>83</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N32" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
@@ -2709,13 +2709,13 @@
         <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
@@ -2726,13 +2726,13 @@
         <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
@@ -2743,13 +2743,13 @@
         <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
@@ -2760,13 +2760,13 @@
         <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
@@ -2777,13 +2777,13 @@
         <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
@@ -2791,16 +2791,16 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>402</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
@@ -2808,16 +2808,16 @@
         <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
@@ -2825,16 +2825,16 @@
         <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
@@ -2842,16 +2842,16 @@
         <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
@@ -2859,16 +2859,16 @@
         <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M42" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
@@ -2876,16 +2876,16 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
@@ -2893,113 +2893,113 @@
         <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M45" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M47" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M51" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M53" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M54" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M55" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M57" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M59" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M61" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
